--- a/artfynd/A 23016-2024 artfynd.xlsx
+++ b/artfynd/A 23016-2024 artfynd.xlsx
@@ -2055,7 +2055,7 @@
         <v>56918206</v>
       </c>
       <c r="B13" t="n">
-        <v>56852</v>
+        <v>56856</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
